--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_0_3.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_0_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1736587.687838089</v>
+        <v>-1738537.91366665</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>449106.297096136</v>
+        <v>131355.6593265595</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -659,19 +659,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>313.0538041382104</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>171.3549111299851</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>321.3250493934577</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498671</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>24.69586435683414</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,28 +859,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>266.6210949690525</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>112.2522607563304</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>186.4504545585478</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>53.33946764031355</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>90.04875807993751</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>44.17579562641266</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,16 +1133,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>61.4954412004503</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1151,7 +1151,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>1.389643345891218</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>22.99033455509885</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>190.271393580297</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1427,7 +1427,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1528,10 +1528,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>197.9208099836042</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>142.7197497247921</v>
       </c>
       <c r="U13" t="n">
-        <v>136.8455341730393</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505273999</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>87.60442205160142</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>246.7083340210954</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -2053,19 +2053,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>136.6679073420996</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>268.7867082192162</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>58.4619332903852</v>
+        <v>38.46612200667226</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2251,13 +2251,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2293,19 +2293,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2324,7 +2324,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2333,7 +2333,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
         <v>81.77913505274074</v>
@@ -2482,16 +2482,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,22 +2521,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>66.90445977359191</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>233.5709700948454</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2612,7 +2612,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2713,25 +2713,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C28" t="n">
-        <v>99.11493096898722</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D28" t="n">
-        <v>80.48358288857175</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E28" t="n">
-        <v>78.30207251692856</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F28" t="n">
-        <v>77.28915789329064</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G28" t="n">
-        <v>98.36167833373699</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H28" t="n">
-        <v>80.78193823789552</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I28" t="n">
-        <v>42.2873553346308</v>
+        <v>42.28735533463099</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S28" t="n">
         <v>129.7889198539626</v>
@@ -2950,25 +2950,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898722</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857175</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692856</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329064</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373699</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789492</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463137</v>
+        <v>42.28735533463099</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S31" t="n">
         <v>129.7889198539626</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898722</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857175</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692856</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329064</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789552</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463137</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898722</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857175</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692856</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329064</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373699</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789552</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463137</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898722</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857175</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692856</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329064</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789552</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463137</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
         <v>42.28735533463134</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898724</v>
+        <v>99.11493096898712</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857176</v>
+        <v>80.48358288857165</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692858</v>
+        <v>78.30207251692846</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329065</v>
+        <v>77.28915789329054</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373699</v>
+        <v>98.36167833373688</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789553</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463139</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415219</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S46" t="n">
-        <v>129.7889198539627</v>
+        <v>129.7889198539625</v>
       </c>
       <c r="T46" t="n">
-        <v>153.4156709287487</v>
+        <v>153.4156709287485</v>
       </c>
       <c r="U46" t="n">
-        <v>218.1054622689367</v>
+        <v>218.1054622689366</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
-        <v>157.5777652593966</v>
+        <v>157.5777652593964</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1359.546482223454</v>
+        <v>888.8361209571988</v>
       </c>
       <c r="C2" t="n">
-        <v>990.5839652830421</v>
+        <v>888.8361209571988</v>
       </c>
       <c r="D2" t="n">
-        <v>632.3182666762915</v>
+        <v>530.5704223504483</v>
       </c>
       <c r="E2" t="n">
-        <v>632.3182666762915</v>
+        <v>214.3544585744783</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2469.034632730549</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2250.399965702612</v>
       </c>
       <c r="U2" t="n">
-        <v>2423.485734520778</v>
+        <v>1996.638180340703</v>
       </c>
       <c r="V2" t="n">
-        <v>2098.91497755769</v>
+        <v>1665.575292997132</v>
       </c>
       <c r="W2" t="n">
-        <v>1746.146322287575</v>
+        <v>1665.575292997132</v>
       </c>
       <c r="X2" t="n">
-        <v>1746.146322287575</v>
+        <v>1665.575292997132</v>
       </c>
       <c r="Y2" t="n">
-        <v>1746.146322287575</v>
+        <v>1275.435961021321</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4419,19 +4419,19 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>386.7533113323258</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>386.7533113323258</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>236.63667191999</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>236.63667191999</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>236.63667191999</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>236.63667191999</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>78.88829935252015</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>78.88829935252015</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>323.2572191628418</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>614.7428622303431</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>386.7533113323258</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>386.7533113323258</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>555.4725825998845</v>
+        <v>1018.50628101231</v>
       </c>
       <c r="C5" t="n">
-        <v>555.4725825998845</v>
+        <v>1018.50628101231</v>
       </c>
       <c r="D5" t="n">
-        <v>555.4725825998845</v>
+        <v>660.2405824055593</v>
       </c>
       <c r="E5" t="n">
-        <v>555.4725825998845</v>
+        <v>660.2405824055593</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2643.270840876492</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2389.509055514583</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2058.446168171012</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W5" t="n">
-        <v>1705.677512900898</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X5" t="n">
-        <v>1332.211754639818</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="Y5" t="n">
-        <v>942.0724226640064</v>
+        <v>1018.50628101231</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4656,31 +4656,31 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4732,43 +4732,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="V7" t="n">
-        <v>473.4444960005474</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="W7" t="n">
-        <v>473.4444960005474</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X7" t="n">
-        <v>245.45494510253</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2169.72394915887</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="C8" t="n">
-        <v>2107.607341885688</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>2169.72394915887</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V8" t="n">
-        <v>2169.72394915887</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="W8" t="n">
-        <v>2169.72394915887</v>
+        <v>1583.378275356799</v>
       </c>
       <c r="X8" t="n">
-        <v>2169.72394915887</v>
+        <v>1581.974595209434</v>
       </c>
       <c r="Y8" t="n">
-        <v>2169.72394915887</v>
+        <v>1191.835263233623</v>
       </c>
     </row>
     <row r="9">
@@ -4857,40 +4857,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4902,22 +4902,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>415.489254012808</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>415.489254012808</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>415.489254012808</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>415.489254012808</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>704.9064240497687</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>704.9064240497687</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>704.9064240497687</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U10" t="n">
-        <v>704.9064240497687</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V10" t="n">
-        <v>704.9064240497687</v>
+        <v>246.1363086691493</v>
       </c>
       <c r="W10" t="n">
-        <v>415.489254012808</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>415.489254012808</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>415.489254012808</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5051,7 +5051,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5075,16 +5075,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5118,28 +5118,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>385.3661712812278</v>
       </c>
       <c r="L12" t="n">
-        <v>904.39166832551</v>
+        <v>999.2632410381165</v>
       </c>
       <c r="M12" t="n">
-        <v>1224.726987855212</v>
+        <v>1767.631387430578</v>
       </c>
       <c r="N12" t="n">
-        <v>1569.24764349283</v>
+        <v>2112.152043068196</v>
       </c>
       <c r="O12" t="n">
-        <v>1818.001057576792</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P12" t="n">
-        <v>2338.301679312539</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,10 +5173,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>416.2699138005285</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
         <v>97.21709146028584</v>
@@ -5206,43 +5206,43 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.063975947118</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980062</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585745</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119727</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
         <v>1187.921157035279</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247849</v>
+        <v>1043.759793676903</v>
       </c>
       <c r="U13" t="n">
-        <v>825.9079295287855</v>
+        <v>1043.759793676903</v>
       </c>
       <c r="V13" t="n">
-        <v>825.9079295287855</v>
+        <v>789.0753054710162</v>
       </c>
       <c r="W13" t="n">
-        <v>825.9079295287855</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="X13" t="n">
-        <v>597.9183786307682</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y13" t="n">
-        <v>597.9183786307682</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="14">
@@ -5264,19 +5264,19 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155894</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822454</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514083</v>
@@ -5288,7 +5288,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5355,28 +5355,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L15" t="n">
-        <v>1239.074732711013</v>
+        <v>836.4717212750119</v>
       </c>
       <c r="M15" t="n">
-        <v>1559.410052240715</v>
+        <v>1307.740464804045</v>
       </c>
       <c r="N15" t="n">
-        <v>1559.410052240715</v>
+        <v>2112.152043068196</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>484.0375086983735</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C16" t="n">
-        <v>484.0375086983735</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>484.0375086983735</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>336.1244151159804</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.787631771461</v>
+        <v>964.135741824786</v>
       </c>
       <c r="V16" t="n">
-        <v>955.1031435655738</v>
+        <v>714.9354044297402</v>
       </c>
       <c r="W16" t="n">
-        <v>665.6859735286132</v>
+        <v>714.9354044297402</v>
       </c>
       <c r="X16" t="n">
-        <v>665.6859735286132</v>
+        <v>486.9458535317228</v>
       </c>
       <c r="Y16" t="n">
-        <v>665.6859735286132</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="17">
@@ -5504,13 +5504,13 @@
         <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
@@ -5595,25 +5595,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>280.6570073165065</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L18" t="n">
-        <v>894.5540770733951</v>
+        <v>836.4717212750119</v>
       </c>
       <c r="M18" t="n">
-        <v>1214.889396603097</v>
+        <v>1604.839867667473</v>
       </c>
       <c r="N18" t="n">
-        <v>1559.410052240715</v>
+        <v>1949.360523305091</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>506.0596387883054</v>
+        <v>506.7814158330672</v>
       </c>
       <c r="C19" t="n">
-        <v>506.0596387883054</v>
+        <v>506.7814158330672</v>
       </c>
       <c r="D19" t="n">
-        <v>506.0596387883054</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="E19" t="n">
-        <v>506.0596387883054</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F19" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H19" t="n">
         <v>208.7516828383384</v>
@@ -5701,22 +5701,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1049.872765780634</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U19" t="n">
-        <v>760.7441269941922</v>
+        <v>916.4194315613242</v>
       </c>
       <c r="V19" t="n">
-        <v>506.0596387883054</v>
+        <v>916.4194315613242</v>
       </c>
       <c r="W19" t="n">
-        <v>506.0596387883054</v>
+        <v>916.4194315613242</v>
       </c>
       <c r="X19" t="n">
-        <v>506.0596387883054</v>
+        <v>688.4298806633069</v>
       </c>
       <c r="Y19" t="n">
-        <v>506.0596387883054</v>
+        <v>688.4298806633069</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
@@ -5738,22 +5738,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155895</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822469</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823784</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514079</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5771,31 +5771,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5826,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="L21" t="n">
-        <v>1288.32563221405</v>
+        <v>761.6902864719584</v>
       </c>
       <c r="M21" t="n">
-        <v>1608.660951743751</v>
+        <v>1082.02560600166</v>
       </c>
       <c r="N21" t="n">
-        <v>1954.109744073479</v>
+        <v>1886.437184265811</v>
       </c>
       <c r="O21" t="n">
-        <v>2623.573505376138</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P21" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>734.3105644220436</v>
+        <v>434.101493148623</v>
       </c>
       <c r="C22" t="n">
-        <v>675.2581065529677</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D22" t="n">
-        <v>675.2581065529677</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E22" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5914,10 +5914,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U22" t="n">
-        <v>1209.787631771461</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V22" t="n">
-        <v>955.1031435655738</v>
+        <v>1133.156678913841</v>
       </c>
       <c r="W22" t="n">
-        <v>955.1031435655738</v>
+        <v>843.7395088768801</v>
       </c>
       <c r="X22" t="n">
-        <v>955.1031435655738</v>
+        <v>615.7499579788628</v>
       </c>
       <c r="Y22" t="n">
-        <v>734.3105644220436</v>
+        <v>615.7499579788628</v>
       </c>
     </row>
     <row r="23">
@@ -5975,10 +5975,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -5987,19 +5987,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6066,28 +6066,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>97.21709146028584</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L24" t="n">
-        <v>711.1141612171745</v>
+        <v>618.8589595388348</v>
       </c>
       <c r="M24" t="n">
-        <v>1031.449480746876</v>
+        <v>1307.740464804045</v>
       </c>
       <c r="N24" t="n">
-        <v>1835.861059011027</v>
+        <v>2112.152043068196</v>
       </c>
       <c r="O24" t="n">
-        <v>2103.272883640391</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P24" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>964.135741824786</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>675.0071030383442</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V25" t="n">
-        <v>607.4268406407766</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W25" t="n">
-        <v>318.0096706038159</v>
+        <v>784.5160943184452</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038159</v>
+        <v>784.5160943184452</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>563.7235151749151</v>
       </c>
     </row>
     <row r="26">
@@ -6306,25 +6306,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K27" t="n">
-        <v>508.1073603047985</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L27" t="n">
-        <v>1122.004430061687</v>
+        <v>711.1141612171745</v>
       </c>
       <c r="M27" t="n">
-        <v>1442.339749591389</v>
+        <v>1479.482307609636</v>
       </c>
       <c r="N27" t="n">
-        <v>1442.339749591389</v>
+        <v>1691.441695849499</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,34 +6358,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C28" t="n">
-        <v>559.3441472229669</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D28" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E28" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F28" t="n">
-        <v>320.8847398504508</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G28" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H28" t="n">
-        <v>139.9315917982968</v>
+        <v>139.9315917982969</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K28" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L28" t="n">
         <v>709.8489468649691</v>
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6537,25 +6537,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K30" t="n">
-        <v>97.21709146028587</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L30" t="n">
-        <v>97.21709146028587</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M30" t="n">
-        <v>744.3684618792639</v>
+        <v>1442.339749591389</v>
       </c>
       <c r="N30" t="n">
-        <v>1548.780040143415</v>
+        <v>1886.437184265811</v>
       </c>
       <c r="O30" t="n">
-        <v>1797.533454227377</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P30" t="n">
         <v>2317.834075963124</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229669</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504508</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G31" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H31" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982969</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>177.05035515254</v>
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6774,25 +6774,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K33" t="n">
-        <v>97.21709146028584</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L33" t="n">
-        <v>97.21709146028584</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M33" t="n">
-        <v>323.6581146605669</v>
+        <v>1220.905903778934</v>
       </c>
       <c r="N33" t="n">
-        <v>1128.069692924718</v>
+        <v>2025.317482043085</v>
       </c>
       <c r="O33" t="n">
-        <v>1797.533454227377</v>
+        <v>2274.070896127047</v>
       </c>
       <c r="P33" t="n">
         <v>2317.834075963124</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229665</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506718</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083199</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504506</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103122</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6859,7 +6859,7 @@
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
         <v>709.8489468649691</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010311</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="35">
@@ -6923,10 +6923,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6962,10 +6962,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
         <v>4262.3578574653</v>
@@ -7014,28 +7014,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>385.3661712812277</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>999.2632410381163</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1767.631387430578</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>2112.152043068196</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C37" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103124</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982968</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028587</v>
@@ -7096,10 +7096,10 @@
         <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7117,7 +7117,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
         <v>1865.165908942116</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045207</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="38">
@@ -7151,28 +7151,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514085</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7251,28 +7251,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L39" t="n">
-        <v>1288.32563221405</v>
+        <v>836.4717212750119</v>
       </c>
       <c r="M39" t="n">
-        <v>1847.655958041207</v>
+        <v>1604.839867667473</v>
       </c>
       <c r="N39" t="n">
-        <v>2192.176613678825</v>
+        <v>1949.360523305091</v>
       </c>
       <c r="O39" t="n">
-        <v>2440.930027762787</v>
+        <v>2430.300015665487</v>
       </c>
       <c r="P39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229672</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7354,28 +7354,28 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7394,22 +7394,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
@@ -7488,28 +7488,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>284.6043454790206</v>
       </c>
       <c r="L42" t="n">
-        <v>1288.32563221405</v>
+        <v>898.5014152359092</v>
       </c>
       <c r="M42" t="n">
-        <v>1847.655958041207</v>
+        <v>1218.836734765611</v>
       </c>
       <c r="N42" t="n">
-        <v>2192.176613678825</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="O42" t="n">
-        <v>2440.930027762787</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P42" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504515</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103132</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
@@ -7567,10 +7567,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
         <v>709.8489468649691</v>
@@ -7588,7 +7588,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7600,7 +7600,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
         <v>1304.027639859417</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045209</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7631,28 +7631,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7682,16 +7682,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7713,40 +7713,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L45" t="n">
-        <v>1288.32563221405</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M45" t="n">
-        <v>1847.655958041207</v>
+        <v>1220.905903778934</v>
       </c>
       <c r="N45" t="n">
-        <v>2192.176613678825</v>
+        <v>1353.784551727103</v>
       </c>
       <c r="O45" t="n">
-        <v>2440.930027762787</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P45" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108335</v>
+        <v>659.4602391108336</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229676</v>
+        <v>559.3441472229679</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506729</v>
+        <v>478.0475988506732</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083212</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504514</v>
+        <v>320.884739850452</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103135</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7831,10 +7831,10 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
         <v>1489.892037025263</v>
@@ -7843,10 +7843,10 @@
         <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
-        <v>1083.430560862498</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045214</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y46" t="n">
         <v>772.2886129010323</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -9015,7 +9015,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9255,7 +9255,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>217.2303754794651</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9480,7 +9480,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9495,10 +9495,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,7 +9717,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,7 +9954,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9963,7 +9963,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>345.4421042448107</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -10191,10 +10191,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10428,13 +10428,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>370.8623401849285</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
@@ -10443,7 +10443,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>178.1796395719844</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10668,19 +10668,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11151,13 +11151,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11385,7 +11385,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>265.562568596635</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -11394,7 +11394,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22553,13 +22553,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>68.87656593405144</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22604,7 +22604,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>6.427209076677229</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22714,7 +22714,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22726,7 +22726,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>20.50409483170285</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22753,7 +22753,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22762,10 +22762,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -23416,10 +23416,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23467,22 +23467,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>78.82781133359714</v>
       </c>
       <c r="U13" t="n">
-        <v>149.391818225538</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,25 +23650,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>57.81662597132983</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>5.429309302732634</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,25 +23887,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23941,19 +23941,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>84.87965371628968</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>17.45064417936118</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>108.7848878082426</v>
+        <v>128.7806990919556</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -24181,19 +24181,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24370,16 +24370,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24409,22 +24409,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>185.2331835502361</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>52.95202824174561</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>5.755396159656812e-13</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>5.968558980384842e-13</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1297556.545705305</v>
+        <v>1297556.545705306</v>
       </c>
     </row>
     <row r="3">
@@ -26314,46 +26314,46 @@
         <v>58099.54682262557</v>
       </c>
       <c r="C2" t="n">
-        <v>61578.13273982119</v>
+        <v>61578.13273982123</v>
       </c>
       <c r="D2" t="n">
-        <v>61578.13273982122</v>
+        <v>61578.1327398212</v>
       </c>
       <c r="E2" t="n">
         <v>58654.35896065629</v>
       </c>
       <c r="F2" t="n">
-        <v>58654.35896065632</v>
+        <v>58654.35896065629</v>
       </c>
       <c r="G2" t="n">
-        <v>58654.35896065631</v>
+        <v>58654.3589606563</v>
       </c>
       <c r="H2" t="n">
+        <v>58654.3589606563</v>
+      </c>
+      <c r="I2" t="n">
         <v>58654.35896065629</v>
       </c>
-      <c r="I2" t="n">
-        <v>58654.35896065628</v>
-      </c>
       <c r="J2" t="n">
-        <v>61578.13273982126</v>
+        <v>61578.13273982125</v>
       </c>
       <c r="K2" t="n">
-        <v>61578.13273982126</v>
+        <v>61578.13273982125</v>
       </c>
       <c r="L2" t="n">
+        <v>61578.13273982127</v>
+      </c>
+      <c r="M2" t="n">
         <v>61578.13273982128</v>
       </c>
-      <c r="M2" t="n">
-        <v>61578.13273982126</v>
-      </c>
       <c r="N2" t="n">
-        <v>61578.1327398213</v>
+        <v>61578.13273982127</v>
       </c>
       <c r="O2" t="n">
-        <v>61578.1327398213</v>
+        <v>61578.13273982127</v>
       </c>
       <c r="P2" t="n">
-        <v>61578.13273982127</v>
+        <v>61578.13273982129</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>230928.7312963054</v>
+        <v>230928.7312963055</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,16 +26396,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>54505.51210371251</v>
+        <v>54505.5121037125</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>112586.3083663466</v>
+        <v>112586.3083663467</v>
       </c>
       <c r="C4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="D4" t="n">
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="F4" t="n">
-        <v>787.793690575905</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="G4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758411</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758825</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="J4" t="n">
+        <v>23206.58093189636</v>
+      </c>
+      <c r="K4" t="n">
+        <v>23206.58093189634</v>
+      </c>
+      <c r="L4" t="n">
+        <v>23206.58093189634</v>
+      </c>
+      <c r="M4" t="n">
+        <v>23206.58093189634</v>
+      </c>
+      <c r="N4" t="n">
         <v>23206.58093189635</v>
       </c>
-      <c r="K4" t="n">
-        <v>23206.58093189633</v>
-      </c>
-      <c r="L4" t="n">
-        <v>23206.58093189633</v>
-      </c>
-      <c r="M4" t="n">
-        <v>23206.58093189633</v>
-      </c>
-      <c r="N4" t="n">
-        <v>23206.58093189633</v>
-      </c>
       <c r="O4" t="n">
-        <v>23206.58093189635</v>
+        <v>23206.58093189634</v>
       </c>
       <c r="P4" t="n">
-        <v>23206.58093189633</v>
+        <v>23206.58093189637</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
@@ -26479,13 +26479,13 @@
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
@@ -26494,10 +26494,10 @@
         <v>97715.10582002539</v>
       </c>
       <c r="K5" t="n">
+        <v>97715.10582002539</v>
+      </c>
+      <c r="L5" t="n">
         <v>97715.1058200254</v>
-      </c>
-      <c r="L5" t="n">
-        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
         <v>97715.10582002539</v>
@@ -26509,7 +26509,7 @@
         <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-727313.7188216751</v>
+        <v>-727429.6716855814</v>
       </c>
       <c r="C6" t="n">
-        <v>-160340.0845042074</v>
+        <v>-160340.0845042073</v>
       </c>
       <c r="D6" t="n">
         <v>-160340.0845042073</v>
       </c>
       <c r="E6" t="n">
-        <v>-559280.7971555324</v>
+        <v>-559378.2562815044</v>
       </c>
       <c r="F6" t="n">
-        <v>-34120.76067863621</v>
+        <v>-34218.21980460838</v>
       </c>
       <c r="G6" t="n">
-        <v>-34120.76067863618</v>
+        <v>-34218.21980460836</v>
       </c>
       <c r="H6" t="n">
-        <v>-34120.76067863619</v>
+        <v>-34218.21980460836</v>
       </c>
       <c r="I6" t="n">
-        <v>-34120.76067863624</v>
+        <v>-34218.21980460838</v>
       </c>
       <c r="J6" t="n">
         <v>-290272.2853084059</v>
       </c>
       <c r="K6" t="n">
+        <v>-59343.55401210048</v>
+      </c>
+      <c r="L6" t="n">
         <v>-59343.55401210047</v>
-      </c>
-      <c r="L6" t="n">
-        <v>-59343.55401210044</v>
       </c>
       <c r="M6" t="n">
         <v>-194144.5692459376</v>
       </c>
       <c r="N6" t="n">
-        <v>-59343.55401210042</v>
+        <v>-59343.55401210047</v>
       </c>
       <c r="O6" t="n">
         <v>-113849.066115813</v>
       </c>
       <c r="P6" t="n">
-        <v>-59343.55401210043</v>
+        <v>-59343.55401210051</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964071</v>
       </c>
     </row>
     <row r="3">
@@ -26735,25 +26735,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541003</v>
@@ -26771,13 +26771,13 @@
         <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26790,7 +26790,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26944,10 +26944,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27379,19 +27379,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27427,19 +27427,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>3.060801678986422</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27540,19 +27540,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27579,28 +27579,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>19.6607792729252</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>174.2707375802606</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>220.4255911831636</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>163.1088527173442</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27783,7 +27783,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27819,10 +27819,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27831,16 +27831,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>196.4742402566535</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>174.4088577256821</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,16 +27853,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>303.7774505705572</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>368.3414573325778</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28020,10 +28020,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,22 +28056,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>123.674857425059</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>96.251604756294</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28147,7 +28147,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28278,7 +28278,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>-1.131184035330079e-12</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -28296,7 +28296,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>-2.38867041020217e-13</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -28345,7 +28345,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>7.815970093361102e-13</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28819,7 +28819,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>-6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29323,7 +29323,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29332,7 +29332,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C28" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D28" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E28" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F28" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G28" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H28" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I28" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J28" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K28" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L28" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M28" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N28" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O28" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P28" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q28" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R28" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S28" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T28" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U28" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V28" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W28" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X28" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y28" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="C46" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="D46" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="E46" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="F46" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="G46" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="H46" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="I46" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="J46" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="K46" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="L46" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="M46" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="N46" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="O46" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="P46" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="R46" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="S46" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="T46" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="U46" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="V46" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="W46" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="X46" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964071</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31139,28 +31139,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>211.31907117367</v>
+        <v>91.88325107529209</v>
       </c>
       <c r="O3" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31376,13 +31376,13 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>91.88325107529209</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>35.71704454958058</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31610,31 +31610,31 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>162.4518126576419</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>91.88325107529209</v>
       </c>
       <c r="O9" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31838,16 +31838,16 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>164.4358785485905</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -31856,13 +31856,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>218.0578460103733</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
         <v>33.17612723677464</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,37 +32075,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>338.063701399498</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>152.4580040397288</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32315,13 +32315,13 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>58.66904626099313</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -32333,10 +32333,10 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
         <v>33.17612723677464</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,37 +32549,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>270.8978656474354</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0.9375118102115607</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32786,31 +32786,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>372.2688744803117</v>
       </c>
       <c r="N24" t="n">
         <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>18.8468793387899</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
         <v>33.17612723677465</v>
@@ -33026,28 +33026,28 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>118.2528309589151</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
         <v>33.17612723677465</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33263,22 +33263,22 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>330.1172231204811</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>100.5826050876807</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>227.9948068710956</v>
@@ -33418,7 +33418,7 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33506,16 +33506,16 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
         <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>227.9948068710956</v>
@@ -33676,7 +33676,7 @@
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647499</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
@@ -33734,10 +33734,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>164.4358785485904</v>
       </c>
       <c r="L36" t="n">
         <v>387.8120847358985</v>
@@ -33746,19 +33746,19 @@
         <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
         <v>33.17612723677465</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,22 +33971,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>241.4090972701574</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>234.5313921984178</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -33995,13 +33995,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,37 +34208,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>62.65625652615893</v>
       </c>
       <c r="L42" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>241.4090972701574</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,37 +34445,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>241.4090972701574</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,16 +35258,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>486.0228424856235</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35486,16 +35486,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>291.0596765868101</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
         <v>348.0006622602202</v>
@@ -35504,13 +35504,13 @@
         <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>288.1533596602009</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35574,7 +35574,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789714</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>570.349666923083</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>323.5710298279816</v>
+        <v>476.0290338677104</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>185.2928442992127</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O18" t="n">
-        <v>251.2660748322851</v>
+        <v>74.63413103502069</v>
       </c>
       <c r="P18" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>503.1838311710204</v>
       </c>
       <c r="M21" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N21" t="n">
-        <v>348.9381740704318</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>323.5710298279816</v>
+        <v>695.8399043082933</v>
       </c>
       <c r="N24" t="n">
         <v>812.5369477415665</v>
       </c>
       <c r="O24" t="n">
-        <v>270.112954171075</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>214.1003921614774</v>
       </c>
       <c r="O27" t="n">
-        <v>369.5189057912002</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K28" t="n">
         <v>219.8343186595512</v>
@@ -36911,22 +36911,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>653.6882529484627</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>448.583267347901</v>
       </c>
       <c r="O30" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K31" t="n">
         <v>219.8343186595512</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303331</v>
@@ -37148,22 +37148,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>228.7283062629101</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
         <v>812.5369477415665</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>44.20523215765414</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37324,10 +37324,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>291.05967658681</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,22 +37619,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>564.980127098139</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O39" t="n">
-        <v>251.2660748322851</v>
+        <v>485.7974670307029</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
@@ -37643,7 +37643,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>189.2800545643785</v>
       </c>
       <c r="L42" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>564.980127098139</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N42" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O42" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37947,7 +37947,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>564.980127098139</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>348.0006622602202</v>
+        <v>134.2208565133017</v>
       </c>
       <c r="O45" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520613</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K46" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L46" t="n">
         <v>318.3460770095692</v>
       </c>
       <c r="M46" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086133</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
